--- a/storage/app/xlsx/seed_cidades_go.xlsx
+++ b/storage/app/xlsx/seed_cidades_go.xlsx
@@ -23,7 +23,7 @@
     <t>ABADIENSE</t>
   </si>
   <si>
-    <t>29185d6b-5a81-44df-946e-ab640cd86095</t>
+    <t>b7e86e74-64e3-4867-b752-711763ad11a7</t>
   </si>
   <si>
     <t>ABADIÂNIA</t>

--- a/storage/app/xlsx/seed_cidades_go.xlsx
+++ b/storage/app/xlsx/seed_cidades_go.xlsx
@@ -23,7 +23,7 @@
     <t>ABADIENSE</t>
   </si>
   <si>
-    <t>b7e86e74-64e3-4867-b752-711763ad11a7</t>
+    <t>2e804083-184c-4902-b326-58608276f256</t>
   </si>
   <si>
     <t>ABADIÂNIA</t>

--- a/storage/app/xlsx/seed_cidades_go.xlsx
+++ b/storage/app/xlsx/seed_cidades_go.xlsx
@@ -23,7 +23,7 @@
     <t>ABADIENSE</t>
   </si>
   <si>
-    <t>2e804083-184c-4902-b326-58608276f256</t>
+    <t>394cfeb8-2c4a-4f75-adb3-434dcd017cd7</t>
   </si>
   <si>
     <t>ABADIÂNIA</t>

--- a/storage/app/xlsx/seed_cidades_go.xlsx
+++ b/storage/app/xlsx/seed_cidades_go.xlsx
@@ -23,7 +23,7 @@
     <t>ABADIENSE</t>
   </si>
   <si>
-    <t>394cfeb8-2c4a-4f75-adb3-434dcd017cd7</t>
+    <t>29afe3d7-515f-4f16-9c36-9e7cacf1169f</t>
   </si>
   <si>
     <t>ABADIÂNIA</t>

--- a/storage/app/xlsx/seed_cidades_go.xlsx
+++ b/storage/app/xlsx/seed_cidades_go.xlsx
@@ -23,7 +23,7 @@
     <t>ABADIENSE</t>
   </si>
   <si>
-    <t>29afe3d7-515f-4f16-9c36-9e7cacf1169f</t>
+    <t>9064bdcb-3ffe-4df4-bdd5-f6692bdc6851</t>
   </si>
   <si>
     <t>ABADIÂNIA</t>

--- a/storage/app/xlsx/seed_cidades_go.xlsx
+++ b/storage/app/xlsx/seed_cidades_go.xlsx
@@ -23,7 +23,7 @@
     <t>ABADIENSE</t>
   </si>
   <si>
-    <t>9064bdcb-3ffe-4df4-bdd5-f6692bdc6851</t>
+    <t>9b2fdaa9-2c27-4989-952a-37ec052bfcd3</t>
   </si>
   <si>
     <t>ABADIÂNIA</t>
